--- a/data/SwagLabs.xlsx
+++ b/data/SwagLabs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellingtonm\eclipse-workspace\GlobalKinetic_MeganKellington\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellingtonm\git\GlobalKinetic_MeganKellington\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A71495-797B-42AC-A4FA-E06893F9074B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B37279-B981-4F12-8AB4-54A164C248C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A330461-7C46-4F0C-84CA-D4B6F6C0C8A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Decision</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Sorry, this user has been locked out</t>
+  </si>
+  <si>
+    <t>LockedMsg</t>
   </si>
 </sst>
 </file>
@@ -414,18 +420,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242CA1-16DB-4A6F-A339-3C8B172A1826}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +448,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -459,9 +469,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
